--- a/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,33; 42,25</t>
+          <t>24,22; 43,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,83; 50,7</t>
+          <t>32,45; 52,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,6; 43,66</t>
+          <t>29,82; 43,78</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,57; 49,79</t>
+          <t>38,25; 50,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,98; 44,55</t>
+          <t>31,86; 44,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,46; 45,87</t>
+          <t>36,39; 45,51</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,95; 47,3</t>
+          <t>34,78; 47,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,01; 54,59</t>
+          <t>40,38; 53,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,21; 48,75</t>
+          <t>39,3; 48,67</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,4; 43,3</t>
+          <t>31,8; 43,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,26; 45,07</t>
+          <t>33,12; 45,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,13; 42,27</t>
+          <t>34,06; 42,67</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,1; 42,8</t>
+          <t>36,05; 42,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,92; 44,84</t>
+          <t>38,23; 44,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,04; 43,0</t>
+          <t>37,76; 42,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>35,69%</t>
         </is>
       </c>
     </row>
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,6</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,24</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,16</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30,74; 50,15</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,44</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 1,21</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 1,27</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>24,22; 43,19</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,16</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,45; 52,41</t>
+          <t>22,3; 40,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,82; 43,78</t>
+          <t>29,59; 43,13</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,06%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>40,11%</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,69</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30,42; 43,32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,67</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0; 0,71</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0; 0,62</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>38,25; 50,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,77</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,86; 44,37</t>
+          <t>36,88; 50,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,39; 45,51</t>
+          <t>35,28; 44,4</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>42,47%</t>
         </is>
       </c>
     </row>
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 1,5</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,38</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,92</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39,26; 52,71</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 1,25</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 1,28</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>0; 1,02</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>34,78; 47,24</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,38</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,92</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,38; 53,88</t>
+          <t>33,11; 46,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,3; 48,67</t>
+          <t>37,5; 46,84</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>35,12%</t>
         </is>
       </c>
     </row>
@@ -1149,37 +1149,37 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>0; 1,16</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,12</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 42,1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,98</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>0; 1,08</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>31,8; 43,32</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,16</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,12</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,12; 45,3</t>
+          <t>28,59; 40,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,06; 42,67</t>
+          <t>29,72; 39,9</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>38,35%</t>
         </is>
       </c>
     </row>
@@ -1284,42 +1284,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0; 0,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,24</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34,36; 43,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>0; 0,25</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>0; 0,23</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>36,05; 42,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,23; 44,93</t>
+          <t>34,15; 41,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,76; 42,81</t>
+          <t>35,34; 41,14</t>
         </is>
       </c>
     </row>
